--- a/datasets/spacebandits.xlsx
+++ b/datasets/spacebandits.xlsx
@@ -1046,6 +1046,5137 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Miles Space</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://miles-space.com/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Propulsion and space communications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miles Space was founded in 2015 as a space exploration and technology development company and will be competing in the NASA Cube Quest Challenge with a planned launch date in late 2017. Miles Space is building a 14kg 6U spacecraft capable of achieving lunar orbit then breaking away for deep space operation. Using an array of ConstantQ plasma thrusters, a phased array antenna that is fabricated while in space, and new AI systems, "Miles" (the spacecraft) will autonomously navigate its mission objectives of lunar orbit and deep space communications. </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/miles-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Space Dynamix Marketing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://spacedm.com/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Marketing for the space industry</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SpaceDM is a Marketing company dedicated to Space Industry. We understand the space business. Our aim is to identify the most profitable strategy for our customers guaranteeing in achieving their Return on Investments. Our goal is the contamination of ideas and experiences, with the aim of offering a model and an innovative approach for the launch of space projects for our customers. We help build a digital strategy as an engine for business development and to support the digital transformation processes of the company. Our combined experiences and our passion for space marketing to create new and exciting solutions to launch new projects and new companies.
+</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/space-dynamix-marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OKAPI:Orbits</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://okapiorbits.space</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Satellite collision avoidance software</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>OKAPI:Orbits is an innovative SaaS startup dedicated to make space travel more sustainable through Collision Avoidance Software for satellites. The OKAPI:Orbits team envisions a safe and sustainable space environment, truly accessable to everyone. We are laser focused on creating innovative and efficient products to enable safe and secure satellite operations and seamless ground segment integration.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/okapi-orbits</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Latitudo 40</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.latitudo40.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>From images to information</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Latitudo 40 is an innovative start-up company that combines the skills and expertise of a large company with the passion and ability to innovate of a user centered design lean organization. Enhancing the 20 years experience of its founders in the ICT and Earth Observation fields, the company offers integrated solutions of geo-information in the cloud, based on images from earth observation satellites analyzed through innovative artificial intelligence algorithms, machine learning and big data analysis.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/latitudo-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Black Arrow</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://blackarrow-space.uk/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Horizon sea launch service</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Black Arrow Space Technologies will launch payloads of up to 500Kg into Polar Low Earth Orbit, or up to 300Kg into Sun Synchronous Orbit, from a unique seaborne launch vessel â our own Space Ship. The service will be marketed under âHorizon Sea Launchâ. A safe, cost-effective, flexible service with low environmental impact.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/black-arrow-space-technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Leo Aerospace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.leoaerospace.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>High altitude smallsat launcher</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Leo Aerospace is building a dedicated delivery service for microsatellites. Making it as easy to put a satellite into space as it is to ship a package across the country. To achieve this, weâre developing a suite of services to launch on-demand to any low earth orbit. All while requiring zero fixed ground infrastructure and providing high launch frequency. After a series of successful launch tests in 2018, we are poised to launch our first payload to space in 2020.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/leo-aerospace</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Astralytical</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.astralytical.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Space analysis and consulting</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Astralytical is a research, consulting, and publishing firm founded in 2016 and located outside of Atlanta. Our focus is the big-picture outlook on the space sector including space-related scientific research, industry and policy analysis, career coaching, and communications. We welcome global clientele for consulting, coaching, project, or ongoing support.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/astralytical</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FluroSat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://flurosat.com/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Crop monitoring and analytics</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>At FluroSat, we analyse remote sensing data (aerial and/or satellite imagery). We build supercharged agronomic tools to quantify the crop stress and answer the "why?"â rather than "where?"â. Our platform allows agronomists to access satellite/plane or upload drone data, and provides them with the information on the stress levels and nutrient content distribution around the paddock (e.g., crop health maps, N/ chlorophyll levels maps) calculated using our advanced modeling and processing tools. We go into in-depth analysis, extending beyond NDVI into the identification of individual crop stressors.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>8600000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/flurosat</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Phase Four</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>http://www.phasefour.io/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Compact electric propulsion for space</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based in El Segundo, California, Phase Four is enabling the exponential growth of satellite constellations by solving the satelliteâs costliest problem, the propulsion system. The companyâs electrodeless RF thruster is the smallest plasma propulsion system available today, and can be scaled for use from CubeSat to SmallSat to school bus-sized satellites. By eliminating the most common failure points in incumbent technologies â electrodes, high-voltage electronics, and complex fabrication â Phase Four has built a system that is reliable and offers high-performance with baked-in manufacturability. Designed with tomorrowâs satellites and constellations in mind, the P4 RF thruster brings SmallSats the same performance levels of large satellites, in a simpler form factor. </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/phase-four</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Stofiel Aerospace</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://stofiel.space</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Smallsat balloon launch service</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We are opening up access to space through capabilities achieved through our technological advances. We want to be your gateway to the stars and shepherd home. It is only fitting that we are located in St. Louis â the gateway city that equipped and launched the pioneers who settled the West </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/stofiel-aerospace</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hydrosat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>http://www.hydrosat.com/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Plant health monitored by satellites</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hydrosat is a satellite data company delivering insights into plant health for commercial, financial, and government partners across the globe.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/hydrosat</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RedWorks</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>http://www.redworks3d.com/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>In-situ additive construction</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>RedWorks is developing an on-site 3d printing system to meet the challenges facing builders today with technology originally created for use in space. RedWorksâ In-Situ Additive Construction (ISAC) Printer will use a 3D printing process that only requires on-site sources of sand/dust/dirt to create materials that can match the strength of existing masonry. Our technology will cut overhead costs, reduce site logistics, and let builders print custom materials without impacting costs or build-time, and with virtually no waste.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/redworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Space Impulse</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.spaceimpulse.com/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>The Space Business Network</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Space Impulse was founded with a mission to lower space industry costs and accelerate times to orbit on a global B2B marketplace platform. The platform applies the security, transparency, and standardization advantages of blockchain and smart-contract technology to streamline industry supply chain integration. By fulfilling this mission, the company will help to clear and widen the pathway linking Earth and space, and empower a thriving and expanding space industry ecosystem.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/space-impulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Spacept</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://spacept.com/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AI for Space Data Analytics</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>We fuse satellite images with AI to prevent power outages and fires sparked by falling trees and storms. Our solution saves lives and reduces CO2 emissions while also radically reducing time and cost for infrastructure inspection.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/spacept</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>First Resonance</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://firstresonance.io/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Software for aerospace manufacturing</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>First Resonance is providing the infrastructure for the builders of tomorrow. Our industry-specific solutions are built for engineers, by engineers. Our team has experienced the pains of developing complex hardware, and we have learned that it is not the lack of innovation that is stalling companies. Rather, engineers do not have the tools they need to move fast and deliver hardware with confidence, and the majority of their time is stuck sifting through spreadsheets, emails, and files.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/first-resonance</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Australia Space Launch</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.spacelaunch.com.au/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Helping launch down under</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>In early 2017, Australia Space Launch was formed to accelerate the planning for and development of a sovereign commercial space launch capability for Australia. ASL uses proven space technologies and converging information technologies to streamline operations, remove man-in-the-middle risks, assure range safing, and create a truly "Always Go for Launch" environment.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/australia-space-launch</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Audacy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://audacy.space/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Anytime and seamless space connectivity</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audacy is redrawing the map of space connectivity, covering existing markets and enabling entirely new applications. Our architecture not only supports the explosive growth LEO satellites, but enables always-on &amp; real-time data access anywhere from launch pad to lunar distance. </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>13100000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/audacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ShipInSpace</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>http://shipinspace.com/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Provide access to space</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SHIPinSPACE LTD has designed a new Sub-Orbital Launcher, based on the idea of decoupling structures principle. The Company has prepared a Â£5M business plan to qualify a 44 Passengers+4 P/Ls Sub-Orbital Module. It is the largest Manned Space Vehicle ever by a factor of 7.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/shipinspace</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Reaction Engines</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.reactionengines.co.uk</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Air-breathing rocket engines</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Our goal is to deliver a truly versatile propulsion system - a hybrid air-breathing rocket engine that can power an aircraft from a standing start to over five times the speed of sound for hypersonic flight in the atmosphere, and over 25 times the speed of sound for space access. With its wide range of operation and scalability, the Synergetic Air-Breathing Rocket Engine (SABREâ¢) represents a defining moment in powered flight.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>161700000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/reaction-engines</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gateway Galactic</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>LEO orbital propellant depot</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>The Antaios platform is a refueling depot being developed by Gateway Galactic, Inc. for orbital applications. Antaios will be available for launch providers to utilize and will reduce the cost to perform space operations further than low earth orbit, and drastically enhance payload options to customers. Customers to benefit from Antaios are the launch providers of the world. Gateway Galactic, Inc. is truly "Your door to the Stars."</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>53000</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/gateway-galactic</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Earthcube</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.earthcube.eu/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Monitoring solutions powered by automation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Earthcube is developing monitoring solutions based on an automated analysis of geospatial information. By combining state-of-the-art AI technics in both Computer Vision and Machine Learning, Earthcube enables its customers to access more precise information, thus ensuring faster and less costly interventions.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>3300000</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/earthcube</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SpacePharma</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>http://space4p.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Microgravity experiments and research solutions</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SpacePharma provides researchers access to the unique environment of microgravity, using cutting edge remote controlled labs. Past microgravity experiments have produced superior crystals in many cases. However, since there was no on-line result analysis several mission were required. SpacePharma's solution allows real-time analysis and decision making during a single mission.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/spacepharma</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sensar</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.sensar.nl/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tracking civil engineering risks using satellites</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Founded by industry veterans in 2017, Sensar helps organizations manage risks related to ground subsidence. Sensar provides professional data products based on satellite radar data. From our offices in Delft, the Netherlands we support customers across the globe.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/sensar</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Enpulsion</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.enpulsion.com/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Advanced propulsion systems for small sats</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ENPULSION GmbH is a space tech company based in Austria. Founded in 2016, it has quickly become a dominant player in the space industry selling one of the most advanced propulsion solutions for small sats to a large number of worldwide satellite platform integrators. The unique, modular solution we offer brings high performance at low cost to satellite manufacturers, fostering the democratization of space and enabling the exploration and exploitation of the solar system, positioning ENPULSION at the very heart of the New Space era.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>3998400</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/enpulsion</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Atomos Space</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.atomosspace.com/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>In-space transportation service</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Atomos changes the rocket equation by adding a second logistics step to satellite launch. Space tugs reside in orbit so that last mile services--orbit raising, precision insertion, phasing, and plane changesâcan be accomplished rapidly and cost-effectively.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>460000</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/atomos-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Asgard Space</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://asgard-space.com/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>High accuracy space surveillance and tracking</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Efficiently manage your satellites and make sure your assets are kept within the assigned position, avoid satellite collisions and shadowing, perform safe and successful orbital transfers and use your orbital slots efficiently by implementing denser co-locations with higher accuracy orbit determination. Our self-developed Orbit Determination Interferometer provides a powerful tool to track and manage your space assets. This passive RF ground system provide high accuracy 24/7 TDOA and FDOA data generated from the satellites broadcast signal or telemetry beacon. </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/asgard-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Picterra</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://picterra.ch/about/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Artificial intelligence for Earth imaging</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>We help you find the right earth observation data sources, and provide you with machine-learning powered tools to transform raw image data into structured data and meaningful insights at a speed, scale and accuracy level that only our AI platform can guarantee.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/picterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Southern Stars</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>http://southernstars.com/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cubesat services and tracking software</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Southern Stars has a long history in the space business. Weâve been developing planetarium software since 1993. Our SkyChart III for Mac and Windows won Sky &amp; Telescope magazineâs first Hot New Products award in 1998. With our roots in astronomy software development, our expertise in telescope control, and our growing experience with small spacecraft missions, the sky is truly no longer a limit!</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>117000</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/southern-stars</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AstroComm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.astrocommtech.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Spacecraft and ground-based hardware</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>AstroComm Technologies, LLC, was formed in the beginning of 2014 as a joint enterprise of three companies noted below to bring together their respective skills and experience in consulting, products, and solutions to issues and opportunities in Satellite Communications. AstroComm's mission is to develop better, cost-effective solutions that address our Satellite Communication customers' needs by bringing to bear extensive experience and knowledge of hardware, software and satellite.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/astrocomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Abstract Assembly</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://abstract-assembly.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3D cubesat models powered by AI</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abstract Assembly is a startup that makes next-gen deep learning agents that learn how to put parts together into complex systems like satellites and computers. They can figure out how to connect components as naturally as we visualize how a plug fits a socket. Our vision is to achieve general intelligence for engineering. </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/abstract-assembly</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RoGo Fire</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://rogofire.com</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Fighting wildlife fires with intelligence</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Our mission is to deliver a communication system that will reduce line of duty deaths, firefighting expense and property damage, as well as improve firefighter situational awareness by ensuring a productive deployment of emergency responders and a more effective hazard response execution utilizing state of the art communications technology.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/rogo-fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>QEYNet</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.qeynet.com/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Microsatellite quantum key network</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Global cyber security is under imminent threat from quantum computers. QEYnet's mission: a global, low-cost, microsatellite-enabled quantum key distribution network. We are founding a new era of ultra-secure communication. </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/qeynet</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alen Space</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://alen.space/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Small satellite turnkey solutions</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>AlÃ©n Space offers you the marketâs most successful nanosatellite services. Our integral solutions include consultancy and advisory services, as well as the design, production and operation of small satellites. We will guide you every step of the way: from the drawing board until your project takes shape and your company starts reaping the benefits of having its very own constellation of nanosatellites, also known as âCubeSatsâ or âSmallSatsâ.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/alen-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TimeTag.Space</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>latvia</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.timetag.space/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Time tagging for satellites</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>TimeTag.Space is a very accurate time tagging and synchronization company which enhances functionality of satellites and spacecrafts. â Our space grade time of flight (TOF) technology provides extreme accuracy single-shot measurements for space LiDAR, 3D altimetry, as well as is adjustable for data transfer and time synchronization for satellite constellations which replaces atomic clock.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/timetag-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Gold Orbit</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>http://www.goldorbit.io/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Shielding technology for modern spacecraft</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Gold Orbit is a manufacturing company that builds a modular armor for Satellites and small spacecraft protecting them from both radiation and space debris. We use proprietary technology to help protect our future in space.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/gold-orbit</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Exodus Space Corp</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.exodus-space.com/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Reusable horizontal space vehicles</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Exodus Space believes space transportation will be defined by fully reusable and efficient, AI-driven horizontal takeoff and landing spaceplanes. Utilizing our patented designs and forward thinking in multipurpose launch vehicles, our goal is to transform how we access space.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/exodus-space-corp</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SpaceChain</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>singapore</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://spacechain.com/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Blockchain-based satellite network</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Founded in 2017, SpaceChain is a community-based space platform that combines space and blockchain technologies to build the worldâs first open-source blockchain-based satellite network, allowing users to develop and run decentralized applications in space.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/spacechain</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EXOS Aerospace</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://exosaero.com/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Reusable suborbital space vehicles</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>EXOS is a leading developer of reusable space vehicles based in Caddo Mills, Texas. EXOS provides affordable, repeatable, and reliable commercial spaceflight with accelerated turnaround. Our payload customers are those who want to âfly now,â rather than two years from now, need minutes of micro G time, and prompt access to their payload.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/exos-aerospace</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>i-Space</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>http://www.i-space.com.cn/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Developing a commercial space shuttle</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Space was established in October 2016. The company is committed to developing excellent commercial launch vehicles and providing systemic launch solutions to provide global commercial aerospace customers with more efficient, better and more cost-effective launch services to significantly enhance human freedom to enter and exit space.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>201-500</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>104500000</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/i-space-china</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>OneSpace</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>http://www.onespacechina.com/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Launch services for satellites and spacecraft</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>One Space focuses on the development of smart small launch vehicles, aiming to provide cost-effective launch services for commercial micro-satellites around the world, and is committed to exploring the use of new technologies and mechanisms in commercial aerospace, and is determined to contribute to the world's commercial aerospace industry.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>120200000</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/onespace</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Maana Electric</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>luxembourg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://maanaelectric.com/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ISRU technology for solar panels</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maana uses its proprietary In-Situ Resource Utilisation (ISRU) technologies developed for the space industry to revolutionise the way in which solar panels are produced, on Earth and in space. Maana is committed to the large scale reduction of greenhouse gasses, saving the Earth for future generations, whilst simultaneously advancing humanity towards becoming a space faring civilisation. </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/maana-electric</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Spire</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.spire.com/en</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Space to cloud analytics</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Spire is a data and analytics company that collects data from space to solve problems on Earth. Owning and operating one of the largest satellite constellations in the world, Spire identifies, tracks, and predicts the movement of the world's resources and weather systems so that businesses and governments can make smart decisions.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Series C+</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>140500000</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/spire</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Astrobotic</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.astrobotic.com/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Rovers</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Space robotics hardware and missions</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>We make high-capability space missions practical for a broad spectrum of business, scientific, and social applications.We believe in the elegant, pragmatic use of robotics to drive down cost, improve capability, and increase reliability.We will empower a thriving human space presence that explores the world beyond Earth orbit. Astrobotic Technology, Inc. is a space robotics company that seeks to make space accessible to the world. The companyâs lunar lander, Peregrine, delivers payloads to the Moon for companies, governments, universities, non-profits, and individuals.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>12500000</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/astrobotic</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Atlas Space</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.atlasground.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Satellite communications as a service</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ATLAS Space Operations, Inc. provides a revolutionary approach to satellite communications and in 2017 was listed by Morgan Stanley as a top 12 disruptor in the satellite industry - by providing satcom as a service. ATLAS was founded on the ideal of providing affordable access to space for all. We believe that providing an exceptional level of service shouldn't be cost prohibitive. Stemming from the innovation in the satellite and launch sectors, there became a data bottleneck on the ground - with no solution in sight. Enter ATLAS. Unlike legacy ground solutions, ATLAS utilizes a software-centric, cloud-based approach - the Freedomâ¢ Software Platform. This proprietary software allows us to cut costly overhead, streamline operations and allow customers to gather more data, faster from space for use in the real world.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>722000</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/atlas-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BridgeSat</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>http://www.bridgesatinc.com/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Laser communication terminals</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BridgeSat Inc. is developing an optical communications network that offers secure delivery of big data from low Earth orbit (LEO) satellites at faster speeds and a lower cost than traditional radio frequency solutions. BridgeSatâs turnkey solution is designed to seamlessly connect satellites from space to the ground and meet accelerating demand for big data collection from LEO.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/bridgesat</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GHGSat</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>http://www.ghgsat.com/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Monitoring greenhouse gases</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>GHGSatâs mission is to become the global reference for remote sensing of greenhouse gas (GHG), air quality gas, and other trace gas emissions from any source in the world. In June 2016, GHGSat launched the worldâs first high-resolution satellite capable of measuring greenhouse gas (CO2 &amp; CH4) emissions from any industrial facility in the world. GHGSat is using this unique satellite and its patented technology to provide greenhouse gas emissions monitoring data and services globally, with better accuracy and at at a fraction of the cost of comparable alternatives. Some of the sites monitored by GHGSat are identified by orange dots in the image below.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/ghgsat</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hawkeye 360</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>http://www.he360.com/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Global intelligence network</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>One of the most defining features of todayâs world is invisible to the naked eye. Increasingly, the lifeblood of the modern, digital economy is carried by the electromagnetic spectrum. Many types of objects emit radio frequencies for vital functions such as communication, navigation, and operation. Our satellites will deliver a brand new data layer never before available commercially â precise mapping of radio frequency emissions. This unique ability to identify and geolocate sources of radio frequencies from space will reveal previously invisible knowledge about human activities around the world.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>99300000</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/hawkeye-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iceye</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>finland</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.iceye.com/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Timely and reliable satellite imagery</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ICEYE provides commercial access to timely and reliable Earth observation data. The ICEYE SAR Satellite Constellation is capable of imaging any location on Earth every three hours, day and night, regardless of cloud cover.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>65100000</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/iceye</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Isotropic Systems</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>http://www.isotropicsystems.com/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>High-bandwidth satellite terminals</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Isotropic Systems is developing the worldâs first multi-service, high-bandwidth, low power, fully integrated range of high throughput terminals designed to support the satellite industry 'reach beyond' traditional markets.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/isotropic-systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kepler Communications</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.keplercommunications.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>High-bandwidth data and IoT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>KEPLER develops next-generation satellite communication technologies and provides global satellite data backhaul services for wideband and Internet of Things applications with the long-term goal of building a network of satellites to provide in-space connectivity.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>21500000</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/kepler-communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nanoracks</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://nanoracks.com/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Payload deployment services</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NanoRacks is committed to helping stimulate the market demand across all orbiting platforms by creating a commercial climate conducive to allowing new users, from students to researchers, from government space agencies to individuals, to conduct research, design experiments, tinker, make mistakes, and maybe realize wonderful breakthroughs in low-earth orbit and beyond. </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/nanoracks</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Speqtral</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://speqtral.space/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Quantum networks in space</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SpeQtral is developing space-based, quantum communication built on technologies developed at the Centre for Quantum Technologies (CQT) at the National University of Singapore. The team has developed technologies that harness the unique properties of quantum physics to enable encryption methods that can secure communications with forward security.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1900000</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/speqtral</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ursa Major Technologies</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.ursamajortechnologies.com/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Engines for small satellites</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Ursa Major Technologies is a Colorado based manufacturer of turnkey propulsion solutions for a wide range of vehicles sized for servicing the micro- and nanosatellite launch community. In order to increase access to space, the current large aerospace model requires supplementation of more frequent launches, the timing and mission of which are dictated by the customer. Ursa Major is enabling this by offering versatile propulsion solutions well-suited for a variety of these "Venture Class" launch vehicles.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/ursa-major-technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>World View Enterprises</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.worldview.space/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Stratospheric observation and launch services</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">World ViewÂ® is pioneering a new frontier at the edge of space and leading the way in the emerging stratospheric economy. As an active, full-service commercial launch provider, World Viewâs technology is already opening up new realms of possibility for commercial customers around the world. </t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Series C+</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>41800000</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/world-view-enterprises</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Analytical Space</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>http://www.analyticalspace.com/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>High-speed data connection</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Every day, remote sensing satellites generate as much data as is stored in the Library of Congress. To bring more of this data down to Earth, Analytical Space is launching a satellite relay network that will provide the first secure, reliable, high-speed data connection in space. Satellite operators uploading to the network will have access to more of their data in less time, all while using their existing hardware.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4000000</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/analytical-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Vector Launch</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>http://www.vector-launch.com/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Affordable space access</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Vector is a disruptive innovator that connects space startups with affordable and reliable space access. Vector has a BIG vision to reshape the multi-billion dollar launch market and combines dedicated low-cost micro satellites launch (Vector Launch) and software defined satellites (GalacticSky) to dramatically increase access and speed to orbit. With products proudly designed, produced, and launched in the U.S.A.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>102800000</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/vector-launch</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LEO Labs</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://www.leolabs.space/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Satellite observation from Earth</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LeoLabsâ mission is to secure commercial operations in low Earth orbit (LEO). As the LEO ecosystem around our planet gets more congested, the risk of collisions rises, and the need to map the orbits of spacecraft, satellites and space debris grows with every launch. Meanwhile, new generations of commercial spacecraft, such as small and cube satellites, are causing a dramatic increase in imaging, communications and human spaceflight prospects. LeoLabs was founded to address these risks today. With a worldwide network of ground-based, phased-array radars that enable high resolution data on objects in LEO, LeoLabs is uniquely equipped to offer foundational mapping data and services to mitigate the risks of collisions. These services include rapid orbit determination, early operational support, and ongoing orbit awareness. LeoLabs is a venture-funded company based in Menlo Park, CA, and provides its services to commercial satellite operators, government regulatory and space agencies, and satellite management services firms.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/leo-labs</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gilmour Space</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>http://www.gspacetech.com/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Low-cost hybrid rockets</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Gilmour Space Technologies is an Australia and Singapore-based rocket company that is developing and launching low-cost hybrid launch vehicles for small satellites up to 400 kg. Gilmour Space Technologies is tracking for commercial LEO launches from 2020.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>17533000</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/gilmour-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Akash Systems</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://akashsystems.com/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Supplying the next generation of satellites</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Akash, Systems, Inc., (San Francisco, CA) founded in 2016 by Felix Ejeckam and Ty Mitchell, is focused on developing and supplying the next generation of extreme bandwidth, hyper-efficient communications gear for space satellites. Akash is working to accelerate the worldâs march towards universal and low-cost access to the internet. A breakthrough new composite material, gallium nitride (GaN)-on-Diamond, invented by Akash cofounder Ejeckam, is at the heart of Akashâs products.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>17600000</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/akash-systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mu Space</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.muspacecorp.com/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>In-space communication</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>mu Space Corpe are on a mission to develop satellite communication technologies that will accelerate the adoption of Internet of Things devices, digital parks, and smart cities. We will also lead the way in Asia in commercial space travel, ultimately making space accessible to more people and enabling more space exploration missions in the future. We believe space and satellite advancements we do now will over time reap us tangible enhancements to improve quality of life. We know our mission is a large and difficult undertaking. But through our efforts and your unwavering support, we can help inspire people, particularly the next generation, to do more to make life more sustainable on Earth, and hopefully, soon in space.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>3070000</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/mu-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Axiom Space</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://axiomspace.com/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Biosphere</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Commercial space stations</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Axiomâs international commercial space station will stimulate growth of the low Earth orbit (LEO) user community by providing additional and expanded services at ISS and allowing a seamless transition to the Axiom station when ISS is retired. This Axiom Space commercial initiative will allow NASA to realize their mandate to transition the multibillion-dollar LEO market to the private sector.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/axiom-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>OneWeb</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.oneweb.world/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>High speed internet satellite constellation</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OneWeb's mission to make a world of difference has made us first-movers in the field of Low Earth Orbit (LEO) satellite telecommunications. Our solutions will shape that world, connecting everywhere to everyone, helping to bridge the digital divides that exist so nobody gets left behind. As leaders in this endeavor, we recognize that we must develop and deploy technology with established best-practises that will sustain the responsible management and best-use of our space environment for everybody, for the future.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>3000000000</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/oneweb</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Space Angels</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://spaceangels.com/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Space investment network</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Space Angels provides unparalleled access to the best early-stage space ventures on (or off) the planet. Our platform makes it easy for angels to understand and invest in these deals and to connect and interactânot only with other members, but also with the Astropreneurs who are shaping our future in space.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/space-angels</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Altius Space</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>http://www.altius-space.com/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Developing rendezvous and capture technology</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Altius is a space robotics and technology startup with expertise in orbital rendezvous and capture robotics, active debris removal, spacecraft mechanisms, assistive telerobotics, in-space propellant transfer, satellite servicing, on-orbit assembly and manufacturing, and heliogyro solar sails. Based near Boulder, Colorado, Altius is comprised of a talented team of engineers, physicists, roboticists, and space entrepreneurs, working together to design, manufacture, and test game-changing technologies for satellite, launch vehicle, and space facility customers.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>87600</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/altius-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Skyrora</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.skyrora.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Building launch vehicles</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skyrora Limited is a UK company headquartered in Edinburgh, developing launch vehicle technology that has evolved from previous rocket systems. We aim to reduce the cost of space launches through the combination of proven technology and advanced engineering methods. </t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/skyrora</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Because Learning</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.becauselearning.com/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Media Education</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>STEM missions to space</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Through Ardusat Space Program, students can run experiments on satellites to collect real space data. Our Mission Control team will help your students design their experiments, which includes: choosing sensors, collection frequencies, and locations around the globe, that will deliver the kind of data real scientists work with. Through our partnership with Spire weâll run your experiment in space and deliver back the data the satellites collect.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2000000</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/because-learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SpaceVR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://spacevr.co/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Media Education</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Sharing the overview effect</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SpaceVR is a transformative virtual experience that has the power to evolve planetary consciousness and solve global issues. We have pioneered a multi-sensory, virtual experience that takes you on voyage to the vast skies of Earthâs orbit while in a zero-gravity float tank. Our stellar team is working on launching the worldâs first virtual reality camera satellite in the history of humanity. Join our mission!</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/spacevr</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ClearSpace</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://clearspace.today/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Removing defunct satellites</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ClearSpace is a spin-off from the EPFL Space Center focusing on developing technologies and services to remove unresponsive or derelict satellites from space. The company works on the CleanSpace One mission to demonstrate the set of technologies necessary for these operations.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/clearspace</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Space Talos</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>http://spacetalos.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Shielding for satellite electronics</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Space Talos is the world's first company that actively shields satellites from space radiation. They aspire to change how space industry protects satellites against radiation.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/space-talos</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PT Scientists</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.ptscientists.com/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Rovers</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Lunar lander</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PTScientists is a new-space company built on passion, technical expertise, and innovation. Their goal is to make space exploration accessible by bringing down the cost of missions and developing reusable space-based infrastructures to support future exploration, and inspire the next generation of engineers and scientists.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/pt-scientists</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sen</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>http://sen.com/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Media Education</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Space TV for humanity</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Senâs vision is to democratize space with unique perspectives of our ever changing planet and future in space, accessible by everyone, to inform, educate, inspire and benefit all humanity. Sen's mission is to explore the Solar System and one day beyond, democratizing the Universe for all humanity.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1250000</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/sen</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Zero 2 Infinity</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>http://www.zero2infinity.space/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Balloon-borne launchers</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Zero 2 Infinity's mission is to enable people with a project and a passion to place themselves above the Earth in order to collect rich data, take high definition images, manage communications and more, much more.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>1600000</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/zero-2-infinity</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Additive Rocket Corporation</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>http://arc-engines.com/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3D printing rocket engines</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Space exploration hinges on the innovation of propulsion technology. Building on this fundamental thought, ARC capitalizes on the limitless potential of metal 3D printing technologies to deliver products with a high standard of safety and reliability.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/additive-rocket-corporation</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Orbex</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>http://orbex.space</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Private launch services</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Orbex has developed one of the most advanced, low carbon, high performance micro-launch vehicles in the world. They launch customer satellites into polar and sun-synchronous low Earth orbits from a unique, modern launch location in the heart of the European continent.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>39800000</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/orbex</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PLD Space</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>http://pldspace.com</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Commercial launch services</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PLD Space is The European Company that is developing launcher technologies to provide suborbital and orbital commercial launch services, dedicated to small payloads and small satellites.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>19800000</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/pld-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>HOSTmi</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://hostmi.space</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Space services marketplace</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>HOSTmi goal is the establishment of platform economics in the global space market, thereby improving the sustainable growth of the industry. The development of a dedicated online space market place adapted to the needs of the industry lays the foundation for standardized processes efficiently hooking up more payloads with flight opportunities.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/hostmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Relativity Space</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>http://relativityspace.com/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3D printed rockets</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Founded in late 2015, Relativity is creating an entirely reimagined process to iterate and scale rockets quickly and build the future of humanity in space. They believe the future of humanity is interplanetary. In realizing that vision, they will create technology that also betters life on Earth.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>501-1000</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>45700000</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/relativity-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>UKAM</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://ukam.space</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Analogue missions</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>UKAM's goal is to to develop British space analogue missions, providing practical opportunities in the UK, to reignite the passion for human spaceflight within the British public and to promote international and interdisciplinary STEM collaboration.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/ukam</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Kubos</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>http://www.kubos.com/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Space grade software</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kubos delivers end-to-end mission software through KubOS Linux, a flight software framework for satellites, and Major Tom, mission control software for satellite operators.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2400000</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/kubos</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SkyWatch</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://skywatch.co/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Earth observation data</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SkyWatch is on a mission to make satellite data accessible to the world. Every day, trillions of pixels are captured by satellites orbiting our planet. They believe that providing a singular point to discover and access the worldâs remote sensing datasets will bring amazing change to geospatial analytics.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>4200000</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/skywatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Capella Space</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://capellaspace.com/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Gathering information from space</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Capella Space's mission is to make timely Earth observation an essential tool for commerce, conservation, and well-being. A world that shares a richer understanding of life on our planet will be a better place to live; Capella Space contribute to that knowledge by documenting change across the globe in entirely new and powerful ways.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>33900000</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/capella-space</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Bagaveev</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://bagaveev.com/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3D printed rocket engines</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bagaveev's mission is to explore and conquer the cosmos for the benefit of mankind. Their short term goal is to launch nano-satellites once a week so small teams can quickly innovated in space and grow into large teams and large satellite companies. Their intermediate goal is to build two-person fully reusable rocket and a spacecraft. Their long term goals are to establish mining, production and communications hubs on the Moon's surface.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>655000</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/bagaveev</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Firefly Aerospace</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>http://www.fireflyspace.com/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Small-satellite launchers</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Firefly Aerospace Inc. (âFireflyâ), headquartered in Austin, TX, is committed to providing economical and convenient access to space for small payloads through the design, manufacture and operation of reliable launch vehicles.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>21600000</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/firefly-aerospace</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Bryce Space &amp; Tech</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://brycetech.com/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Information Research</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Space and technology analytics services</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bryce Space and Technology is an analytics and engineering firm for space and satellite, cyber, and R&amp;D clients. They help their clients turn technology into mission and business success.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/bryce-space-tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>STAR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://starlabsurat.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Smallsat launch services</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Space Technology and Aeronautical Rocketry, also known as STAR, is a private Aerospace company incorporated as Avkashyaan Private Limited. STAR builds high powered rockets, rocket engines and other space systems. STAR's mission is to build easy, economical and efficient launch vehicle for small satellites and to build platforms for students to do research in the field of space technology.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/star</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SpaceX</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://spacex.com/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Reusable rockets and spacecraft</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SpaceX designs, manufactures and launches advanced rockets and spacecraft. The company was founded in 2002 to revolutionize space technology, with the ultimate goal of enabling people to live on other planets.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1000+</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Series C+</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2850000000</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/spacex</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Space Store</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://spacestore.co</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Media Education</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Education and retail</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Space Store's mission is to build a global network of space-themed retail and food &amp; beverage destinations.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Self-funded</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/space-store</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rocket Lab</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.rocketlabusa.com/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Smallsat launch services</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>The satellites of today are getting smaller, doing more and costing less â and thousands of them need to get on orbit. Small satellites have been promised frequent, reliable and affordable dedicated launch for decades. Rocket Lab aims to deliver on this with a tailored, responsive launch service operating right now.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>201-500</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Series C+</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>215000000</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/rocket-lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Planet</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://planet.com</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Satellites</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Imaging services</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Planet's mission is to image the entire Earth every day and make global change visible, accessible, and actionable.Planet started as a small team of physicists and engineers, and now operates the worldâs largest constellation of Earth-imaging satellites. They offer customers a diverse selection of 3-meter, 5-meter, and 80-centimeter data products, all under one roof.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>201-500</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Series C+</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>183100000</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/planet</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oxford Space Systems</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>britain</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.oxford.space</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Deployable structures</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Oxford Space Systems is an award-winning space technology business that's pioneering the development of a new generation of deployable antennas and structures that are lighter, less complex and lower cost than those in current commercial demand</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>https://www.spacebandits.io/startups/oxford-space-systems</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
